--- a/CashFlow/ZTS_cashflow.xlsx
+++ b/CashFlow/ZTS_cashflow.xlsx
@@ -700,19 +700,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>6319000000.0</v>
+        <v>-346000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>6101000000.0</v>
+        <v>-295000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>4422000000.0</v>
+        <v>-287000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2771000000.0</v>
+        <v>-218000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1307000000.0</v>
+        <v>-104000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-71000000.0</v>
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>147000000.0</v>
+        <v>1414000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>67000000.0</v>
+        <v>1258000000.0</v>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
